--- a/tests/data/test_data.xlsx
+++ b/tests/data/test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Google_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -367,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>17</v>
